--- a/SCRATCH/CLEAN/foaie_parcurs_B-151-VGT_aprilie_2022_Alex_Bora.xlsx
+++ b/SCRATCH/CLEAN/foaie_parcurs_B-151-VGT_aprilie_2022_Alex_Bora.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>VOLVO ROMÂNIA</t>
   </si>
@@ -70,31 +70,37 @@
     <t>Observatii utilizator</t>
   </si>
   <si>
+    <t>Cluj-Satu-Mare</t>
+  </si>
+  <si>
+    <t>Interes Serviciu</t>
+  </si>
+  <si>
+    <t>Acasa-Birou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Cluj-Zalau</t>
+  </si>
+  <si>
     <t>Cluj-Dej</t>
   </si>
   <si>
-    <t>Interes Serviciu</t>
-  </si>
-  <si>
-    <t>Cluj-Zalau</t>
-  </si>
-  <si>
-    <t>Acasa-Birou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Cluj-Cluj</t>
-  </si>
-  <si>
     <t>Cluj-Turda</t>
   </si>
   <si>
+    <t>Cluj-Apahida</t>
+  </si>
+  <si>
+    <t>Cluj-Bistrita</t>
+  </si>
+  <si>
+    <t>Cluj-Cmp. Turzii</t>
+  </si>
+  <si>
     <t>Cluj-Bontida</t>
-  </si>
-  <si>
-    <t>Cluj-Baia-Mare</t>
   </si>
   <si>
     <t>Km parcursi:</t>
@@ -620,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>30128</v>
+        <v>57915</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -642,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="4">
-        <v>101</v>
+        <v>421</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>17</v>
@@ -672,10 +678,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="4">
-        <v>156</v>
+        <v>421</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>18</v>
@@ -689,10 +695,10 @@
         <v>30</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -700,10 +706,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="4">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>18</v>
@@ -717,10 +723,10 @@
         <v>30</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -728,13 +734,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="4">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -758,13 +764,13 @@
         <v>11</v>
       </c>
       <c r="B24" s="4">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -772,13 +778,13 @@
         <v>12</v>
       </c>
       <c r="B25" s="4">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -786,13 +792,13 @@
         <v>13</v>
       </c>
       <c r="B26" s="4">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -800,13 +806,13 @@
         <v>14</v>
       </c>
       <c r="B27" s="4">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -817,10 +823,10 @@
         <v>30</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -844,13 +850,13 @@
         <v>18</v>
       </c>
       <c r="B31" s="4">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -861,10 +867,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -872,13 +878,13 @@
         <v>20</v>
       </c>
       <c r="B33" s="4">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -886,13 +892,13 @@
         <v>21</v>
       </c>
       <c r="B34" s="4">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -935,10 +941,10 @@
         <v>30</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -946,7 +952,7 @@
         <v>27</v>
       </c>
       <c r="B40" s="4">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>25</v>
@@ -960,13 +966,13 @@
         <v>28</v>
       </c>
       <c r="B41" s="4">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -974,10 +980,10 @@
         <v>29</v>
       </c>
       <c r="B42" s="4">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>18</v>
@@ -993,48 +999,48 @@
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B44" s="4">
-        <v>1460</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B45" s="4">
-        <v>31588</v>
+        <v>60639</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="20" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="20" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="20" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="20" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="20" customHeight="1">
       <c r="A55" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="20" customHeight="1">
       <c r="A57" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
